--- a/Results.xlsx
+++ b/Results.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <x:si>
     <x:t>Autorización</x:t>
   </x:si>
@@ -212,6 +212,27 @@
   </x:si>
   <x:si>
     <x:t>AUTORIZADOR SAVIA SALUD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14989210</x:t>
+  </x:si>
+  <x:si>
+    <x:t>321839</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NICOL VALERIA PEREZ BOTERO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1013456539</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CONTRIBUTIVO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tarjeta Identidad</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2004-04-04</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -874,6 +895,312 @@
         <x:v>20</x:v>
       </x:c>
     </x:row>
+    <x:row r="25" spans="1:6">
+      <x:c r="A25" s="0" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B25" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C25" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="E25" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="F25" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:6">
+      <x:c r="A26" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C26" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:6">
+      <x:c r="A27" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B27" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C27" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:6">
+      <x:c r="A28" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B28" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C28" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="1:6">
+      <x:c r="A29" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:6">
+      <x:c r="A30" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="B30" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C30" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:6">
+      <x:c r="A31" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B31" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C31" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:6">
+      <x:c r="A32" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B32" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C32" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D32" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:6">
+      <x:c r="A33" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C33" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="D33" s="0" t="s">
+        <x:v>34</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="34" spans="1:6">
+      <x:c r="A34" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="1:6">
+      <x:c r="A35" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B35" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C35" s="0" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D35" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="36" spans="1:6">
+      <x:c r="A36" s="0" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C36" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="D36" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="37" spans="1:6">
+      <x:c r="A37" s="0" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C37" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="D37" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="38" spans="1:6">
+      <x:c r="A38" s="0" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B38" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C38" s="0" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="39" spans="1:6">
+      <x:c r="A39" s="0" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B39" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C39" s="0" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D39" s="0" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="40" spans="1:6">
+      <x:c r="A40" s="0" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="B40" s="0" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C40" s="0" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="D40" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="41" spans="1:6">
+      <x:c r="A41" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="42" spans="1:6">
+      <x:c r="A42" s="0" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B42" s="0" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C42" s="0" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="D42" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="43" spans="1:6">
+      <x:c r="A43" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="44" spans="1:6">
+      <x:c r="A44" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="B44" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C44" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D44" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E44" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="F44" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="45" spans="1:6">
+      <x:c r="A45" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B45" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C45" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="D45" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E45" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="46" spans="1:6">
+      <x:c r="A46" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B46" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C46" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="D46" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="E46" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F46" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="47" spans="1:6">
+      <x:c r="A47" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="48" spans="1:6">
+      <x:c r="A48" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
